--- a/ProjectTest65/Excel/EditProfile.xlsx
+++ b/ProjectTest65/Excel/EditProfile.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="H2" s="17" t="inlineStr">
         <is>
-          <t>แก้ไขข้อมูลส่วนตัวสำเร็จ</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="I2" s="17" t="inlineStr">

--- a/ProjectTest65/Excel/EditProfile.xlsx
+++ b/ProjectTest65/Excel/EditProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\MiniProjectTest\ProjectTest65\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E537D715-13DA-4D00-A9AC-57E26A5068D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B2B476-E273-4531-8718-550317442F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="1785" windowWidth="16965" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="editProfile" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +289,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -307,16 +313,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -328,35 +334,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,22 +346,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -391,6 +361,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -704,685 +717,685 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="16" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="20">
+      <c r="A3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="19" t="s">
+      <c r="E3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="20">
+      <c r="A4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="18">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="E4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="20">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="19" t="s">
+      <c r="E5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="20">
+      <c r="A6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="18">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="20">
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="18">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="20">
+      <c r="A8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="18">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="22" t="s">
+      <c r="G8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="11" t="s">
+      <c r="M8" s="11"/>
+      <c r="N8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18">
+        <v>8</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="12">
+      <c r="H9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="4">
         <f>COUNTIF(G:G,"Pass")</f>
         <v>16</v>
       </c>
-      <c r="N9" s="12" t="str">
+      <c r="N9" s="4" t="str">
         <f>TEXT(M9/22,"0.00%")</f>
         <v>72.73%</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20">
+      <c r="A10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="H10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="5">
         <f>COUNTIF(G:G,"Fail")</f>
         <v>6</v>
       </c>
-      <c r="N10" s="13" t="str">
+      <c r="N10" s="5" t="str">
         <f>TEXT(M10/22,"0.00%")</f>
         <v>27.27%</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="20">
+      <c r="A11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="H11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="20">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="2" t="s">
+      <c r="A12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="18">
+        <v>11</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="G12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="20">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="A13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="18">
+        <v>12</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="24" t="s">
+      <c r="E13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="20">
+      <c r="A14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="18">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="22" t="s">
+      <c r="G14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="11" t="s">
+      <c r="M14" s="11"/>
+      <c r="N14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="20">
+      <c r="A15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="18">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="12">
+      <c r="G15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="4">
         <f>COUNTIF(H:H,"Pass")</f>
         <v>19</v>
       </c>
-      <c r="N15" s="12" t="str">
+      <c r="N15" s="4" t="str">
         <f>TEXT(M15/22,"0.00%")</f>
         <v>86.36%</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="20">
+      <c r="A16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="18">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="13" t="s">
+      <c r="E16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="5">
         <f>COUNTIF(H:H,"Fail")</f>
         <v>3</v>
       </c>
-      <c r="N16" s="13" t="str">
+      <c r="N16" s="5" t="str">
         <f>TEXT(M16/22,"0.00%")</f>
         <v>13.64%</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="20">
+      <c r="A17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="18">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="19" t="s">
+      <c r="E17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="20">
+      <c r="A18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="18">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="19" t="s">
+      <c r="E18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="20">
+      <c r="A19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="18">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="19" t="s">
+      <c r="G19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="20">
+      <c r="A20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="18">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="19" t="s">
+      <c r="G20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="20">
+      <c r="A21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="18">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="19" t="s">
+      <c r="E21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="20">
+      <c r="A22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="18">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A23" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="20">
+      <c r="A23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="18">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="19" t="s">
+      <c r="G23" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>12</v>
       </c>
     </row>

--- a/ProjectTest65/Excel/EditProfile.xlsx
+++ b/ProjectTest65/Excel/EditProfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\MiniProjectTest\ProjectTest65\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F300D023-3B2C-49A8-81DB-950B55B9FDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6286B0-60DD-4C2A-B55D-450D4DA149B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13320" yWindow="1320" windowWidth="13008" windowHeight="10356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="editProfile" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="51">
   <si>
     <t>Execute</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>กรุณากรอกเบอร์โทรศัพท์</t>
+  </si>
+  <si>
+    <t>ควรปรับให้ชื่อ-นามสกุลตั้งแต่ 2-125 ตัวอักษร</t>
   </si>
 </sst>
 </file>
@@ -293,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -323,6 +326,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
@@ -331,7 +343,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -400,6 +412,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,19 +728,20 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H20"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="19.5" customHeight="1">
@@ -883,6 +899,9 @@
       <c r="H6" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="I6" s="28" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="19.5" customHeight="1">
       <c r="A7" s="14" t="s">
@@ -909,6 +928,7 @@
       <c r="H7" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="I7" s="28"/>
       <c r="L7" s="27" t="s">
         <v>6</v>
       </c>
@@ -1403,11 +1423,12 @@
       <c r="D25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="L14:M14"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
